--- a/Datos CAPM Amazon.xlsx
+++ b/Datos CAPM Amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Universidad\Market Value\Portfolio Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B4C2B4-232E-4702-A7EB-CC5718214833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2C236B-AF93-47C0-B8A8-93004BDCF925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="7" r:id="rId1"/>
@@ -18,20 +18,31 @@
     <sheet name="NASDAQ" sheetId="3" r:id="rId3"/>
     <sheet name="UST10" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - Datos históricos NASDAQ Composite" description="Conexión a la consulta 'Datos históricos NASDAQ Composite' en el libro." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - Datos históricos NASDAQ Composite" description="Conexión a la consulta 'Datos históricos NASDAQ Composite' en el libro." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;Datos históricos NASDAQ Composite&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [Datos históricos NASDAQ Composite]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Fecha</t>
   </si>
@@ -59,14 +70,17 @@
   <si>
     <t>UST10</t>
   </si>
+  <si>
+    <t>mv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -552,7 +566,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -910,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +958,7 @@
         <v>-2.1285670548241709E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>1.6369999999999999E-2</v>
+        <v>1.3556792508793158E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,7 +972,7 @@
         <v>7.0824811660237685E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>1.993E-2</v>
+        <v>1.6483078719029542E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,7 +986,7 @@
         <v>-1.2622065344623623E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>1.9230000000000001E-2</v>
+        <v>1.5918226731408414E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,7 +1000,7 @@
         <v>8.2719838069897911E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>2.019E-2</v>
+        <v>1.6802187961761916E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,7 +1014,7 @@
         <v>2.6024907820019427E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>2.1269999999999997E-2</v>
+        <v>1.7562689808165999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,7 +1028,7 @@
         <v>-1.6400329781736667E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>2.3099999999999999E-2</v>
+        <v>1.9367360281836721E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,7 +1042,7 @@
         <v>2.8356464074660082E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>2.1819999999999999E-2</v>
+        <v>1.804482967237897E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,7 +1056,7 @@
         <v>-6.8594148525431442E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>2.1360000000000001E-2</v>
+        <v>1.826538484697604E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,7 +1070,7 @@
         <v>-3.273310429581433E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>2.035E-2</v>
+        <v>1.6802187961761916E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,7 +1084,7 @@
         <v>9.3847399224269434E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>2.1419999999999998E-2</v>
+        <v>1.7709810385564406E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,7 +1098,7 @@
         <v>1.0867177838238984E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>2.206E-2</v>
+        <v>1.8216377201596412E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,7 +1112,7 @@
         <v>-1.9821205910736106E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>2.266E-2</v>
+        <v>1.871449875864295E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1126,7 @@
         <v>-7.8575551033368551E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>1.9230000000000001E-2</v>
+        <v>1.5967358207888971E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,7 +1140,7 @@
         <v>-1.2137105950432936E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>1.4369226572710225E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1154,7 @@
         <v>6.842988624271884E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>1.7689999999999997E-2</v>
+        <v>1.4631676547709471E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,7 +1168,7 @@
         <v>-1.9403061695945634E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>1.8159999999999999E-2</v>
+        <v>1.516454525523292E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,7 +1182,7 @@
         <v>3.6164812705220317E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>1.83E-2</v>
+        <v>1.5295665117840418E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1196,7 @@
         <v>-2.1299256678375067E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>1.4530000000000001E-2</v>
+        <v>1.2209344624336538E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,7 +1210,7 @@
         <v>6.5967740936301755E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>1.4499999999999999E-2</v>
+        <v>1.2110672517386956E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,7 +1224,7 @@
         <v>9.8970773692255154E-3</v>
       </c>
       <c r="D21" s="3">
-        <v>1.554E-2</v>
+        <v>1.3055840567823829E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1238,7 @@
         <v>1.8947982245138162E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>1.536E-2</v>
+        <v>1.3220117483916383E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,7 +1252,7 @@
         <v>-2.3128765060240863E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>1.8260000000000002E-2</v>
+        <v>1.5090782033480021E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,7 +1266,7 @@
         <v>2.5927224935152982E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>2.291E-2</v>
+        <v>1.970177053312705E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,7 +1280,7 @@
         <v>1.1165209028341172E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>2.4310000000000002E-2</v>
+        <v>2.0158327727366476E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,7 +1294,7 @@
         <v>4.3036380389068096E-2</v>
       </c>
       <c r="D26" s="3">
-        <v>2.4329999999999997E-2</v>
+        <v>2.0321328427823637E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,7 +1308,7 @@
         <v>3.7516986387736706E-2</v>
       </c>
       <c r="D27" s="3">
-        <v>2.3359999999999999E-2</v>
+        <v>1.9758852698343876E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,7 +1322,7 @@
         <v>1.4814331621302523E-2</v>
       </c>
       <c r="D28" s="3">
-        <v>2.3869999999999999E-2</v>
+        <v>1.9693615646076967E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,7 +1336,7 @@
         <v>2.2983081123324034E-2</v>
       </c>
       <c r="D29" s="3">
-        <v>2.2749999999999999E-2</v>
+        <v>1.8804294971668245E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,7 +1350,7 @@
         <v>2.4953659379490567E-2</v>
       </c>
       <c r="D30" s="3">
-        <v>2.196E-2</v>
+        <v>1.8200040733760137E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1364,7 @@
         <v>-9.3732052167292412E-3</v>
       </c>
       <c r="D31" s="3">
-        <v>2.2610000000000002E-2</v>
+        <v>1.9000183257844583E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1378,7 @@
         <v>3.3825047798033303E-2</v>
       </c>
       <c r="D32" s="3">
-        <v>2.273E-2</v>
+        <v>1.8934891843425117E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1392,7 @@
         <v>1.2687220783476061E-2</v>
       </c>
       <c r="D33" s="3">
-        <v>2.1190000000000001E-2</v>
+        <v>1.7505469831089471E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1406,7 @@
         <v>1.0468744652851525E-2</v>
       </c>
       <c r="D34" s="3">
-        <v>2.2959999999999998E-2</v>
+        <v>1.9285778178201873E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1420,7 @@
         <v>3.5669862499153382E-2</v>
       </c>
       <c r="D35" s="3">
-        <v>2.358E-2</v>
+        <v>1.960390706959636E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,7 +1434,7 @@
         <v>2.1746013107063922E-2</v>
       </c>
       <c r="D36" s="3">
-        <v>2.3789999999999999E-2</v>
+        <v>1.9905618985398554E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1448,7 @@
         <v>4.2799139361970884E-3</v>
       </c>
       <c r="D37" s="3">
-        <v>2.4049999999999998E-2</v>
+        <v>1.9824085078716802E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,7 +1462,7 @@
         <v>7.3600071848758164E-2</v>
       </c>
       <c r="D38" s="3">
-        <v>2.6960000000000001E-2</v>
+        <v>2.2331986496963996E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1476,7 @@
         <v>-1.868317798874175E-2</v>
       </c>
       <c r="D39" s="3">
-        <v>2.862E-2</v>
+        <v>2.3558992305972026E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,7 +1490,7 @@
         <v>-2.8814754826406164E-2</v>
       </c>
       <c r="D40" s="3">
-        <v>2.7389999999999998E-2</v>
+        <v>2.2559635576915316E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,7 +1504,7 @@
         <v>4.0065463853311556E-4</v>
       </c>
       <c r="D41" s="3">
-        <v>2.9340000000000001E-2</v>
+        <v>2.4297649035271984E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,7 +1518,7 @@
         <v>5.3189306380877044E-2</v>
       </c>
       <c r="D42" s="3">
-        <v>2.8220000000000002E-2</v>
+        <v>2.3526510136486767E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1532,7 @@
         <v>9.1613679972910589E-3</v>
       </c>
       <c r="D43" s="3">
-        <v>2.8330000000000001E-2</v>
+        <v>2.3526510136486767E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,7 +1546,7 @@
         <v>2.1502469941280689E-2</v>
       </c>
       <c r="D44" s="3">
-        <v>2.9340000000000001E-2</v>
+        <v>2.4354443991776442E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,7 +1560,7 @@
         <v>5.7059695325341275E-2</v>
       </c>
       <c r="D45" s="3">
-        <v>2.8309999999999998E-2</v>
+        <v>2.3526510136486767E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,7 +1574,7 @@
         <v>-7.7920572560218337E-3</v>
       </c>
       <c r="D46" s="3">
-        <v>3.0689999999999999E-2</v>
+        <v>2.5222155196906737E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,7 +1588,7 @@
         <v>-9.2023091215271635E-2</v>
       </c>
       <c r="D47" s="3">
-        <v>3.1230000000000001E-2</v>
+        <v>2.5870371923089053E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,7 +1602,7 @@
         <v>3.3726166522947132E-3</v>
       </c>
       <c r="D48" s="3">
-        <v>2.988E-2</v>
+        <v>2.4605921974834022E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,7 +1616,7 @@
         <v>-9.4844308877654382E-2</v>
       </c>
       <c r="D49" s="3">
-        <v>2.6789999999999998E-2</v>
+        <v>2.2112413859518565E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +1630,7 @@
         <v>9.7427689562460174E-2</v>
       </c>
       <c r="D50" s="3">
-        <v>2.6190000000000001E-2</v>
+        <v>2.1681246956855027E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,7 +1644,7 @@
         <v>3.4440944060073475E-2</v>
       </c>
       <c r="D51" s="3">
-        <v>2.6589999999999999E-2</v>
+        <v>2.2364511276695698E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,7 +1658,7 @@
         <v>2.6125352305268024E-2</v>
       </c>
       <c r="D52" s="3">
-        <v>2.4239999999999998E-2</v>
+        <v>2.0011602154712538E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,7 +1672,7 @@
         <v>4.7361216769392422E-2</v>
       </c>
       <c r="D53" s="3">
-        <v>2.5019999999999997E-2</v>
+        <v>2.0630949427329348E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,7 +1686,7 @@
         <v>-7.933404073182404E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>2.1259999999999998E-2</v>
+        <v>1.7603559019314652E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,7 +1700,7 @@
         <v>7.4208891542502098E-2</v>
       </c>
       <c r="D55" s="3">
-        <v>2.0379999999999999E-2</v>
+        <v>1.6883992834837436E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,7 +1714,7 @@
         <v>2.1131017806111263E-2</v>
       </c>
       <c r="D56" s="3">
-        <v>2.0059999999999998E-2</v>
+        <v>1.6573095213119338E-3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,7 +1728,7 @@
         <v>-2.5997441110059194E-2</v>
       </c>
       <c r="D57" s="3">
-        <v>1.4930000000000001E-2</v>
+        <v>1.2406656753911616E-3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,7 +1742,7 @@
         <v>4.5774895515189318E-3</v>
       </c>
       <c r="D58" s="3">
-        <v>1.6650000000000002E-2</v>
+        <v>1.3794853340294289E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,7 +1756,7 @@
         <v>3.6631817914750453E-2</v>
       </c>
       <c r="D59" s="3">
-        <v>1.6810000000000002E-2</v>
+        <v>1.3958996959648751E-3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,7 +1770,7 @@
         <v>4.4994428606572656E-2</v>
       </c>
       <c r="D60" s="3">
-        <v>1.7589999999999998E-2</v>
+        <v>1.4664477475530013E-3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,7 +1784,7 @@
         <v>3.5442970779427041E-2</v>
       </c>
       <c r="D61" s="3">
-        <v>1.8839999999999999E-2</v>
+        <v>1.585271397193555E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,7 +1798,7 @@
         <v>1.9876067137730491E-2</v>
       </c>
       <c r="D62" s="3">
-        <v>1.5029999999999998E-2</v>
+        <v>1.2455978103835808E-3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,7 +1812,7 @@
         <v>-6.3771590678116108E-2</v>
       </c>
       <c r="D63" s="3">
-        <v>1.1160000000000002E-2</v>
+        <v>9.6403866721317399E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,7 +1826,7 @@
         <v>-0.10122943213611646</v>
       </c>
       <c r="D64" s="3">
-        <v>6.5100000000000002E-3</v>
+        <v>5.549695773365837E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,7 +1840,7 @@
         <v>0.15447201984389802</v>
       </c>
       <c r="D65" s="3">
-        <v>5.8099999999999992E-3</v>
+        <v>5.3674596566688493E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,7 +1854,7 @@
         <v>6.7530977383557289E-2</v>
       </c>
       <c r="D66" s="3">
-        <v>6.3600000000000002E-3</v>
+        <v>5.3260372649654997E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,7 +1868,7 @@
         <v>5.994708041311414E-2</v>
       </c>
       <c r="D67" s="3">
-        <v>6.1799999999999997E-3</v>
+        <v>5.4668657010048527E-4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,7 +1882,7 @@
         <v>6.8250957374467625E-2</v>
       </c>
       <c r="D68" s="3">
-        <v>5.1999999999999998E-3</v>
+        <v>4.430852851513567E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1896,7 @@
         <v>9.5872792519133831E-2</v>
       </c>
       <c r="D69" s="3">
-        <v>6.9199999999999991E-3</v>
+        <v>5.8643812772429804E-4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,7 +1910,7 @@
         <v>-5.1614119533334502E-2</v>
       </c>
       <c r="D70" s="3">
-        <v>6.4099999999999999E-3</v>
+        <v>5.6987708986633301E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,7 +1924,7 @@
         <v>-2.2931351901200658E-2</v>
       </c>
       <c r="D71" s="3">
-        <v>8.0499999999999999E-3</v>
+        <v>7.2543193972407494E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1924,7 +1938,7 @@
         <v>0.117961726934388</v>
       </c>
       <c r="D72" s="3">
-        <v>8.3099999999999997E-3</v>
+        <v>6.9897329592905066E-4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1952,7 @@
         <v>5.6525510011689706E-2</v>
       </c>
       <c r="D73" s="3">
-        <v>9.11E-3</v>
+        <v>7.6014723596040668E-4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,7 +1966,7 @@
         <v>1.4153944513930483E-2</v>
       </c>
       <c r="D74" s="3">
-        <v>1.069E-2</v>
+        <v>8.8814868586606366E-4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,7 +1980,7 @@
         <v>9.3070761321123463E-3</v>
       </c>
       <c r="D75" s="3">
-        <v>1.3950000000000001E-2</v>
+        <v>1.1551328433219155E-3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,7 +1994,7 @@
         <v>4.1326981167115751E-3</v>
       </c>
       <c r="D76" s="3">
-        <v>1.7079999999999998E-2</v>
+        <v>1.4418441706418594E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,7 +2008,7 @@
         <v>5.4036160995012406E-2</v>
       </c>
       <c r="D77" s="3">
-        <v>1.6200000000000003E-2</v>
+        <v>1.345005537197741E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,7 +2022,7 @@
         <v>-1.5322273374452466E-2</v>
       </c>
       <c r="D78" s="3">
-        <v>1.6080000000000001E-2</v>
+        <v>1.3318669405149031E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,7 +2036,7 @@
         <v>5.4929397166576743E-2</v>
       </c>
       <c r="D79" s="3">
-        <v>1.4379999999999999E-2</v>
+        <v>1.2151787195249231E-3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,7 +2050,7 @@
         <v>1.1633382630249045E-2</v>
       </c>
       <c r="D80" s="3">
-        <v>1.2239999999999999E-2</v>
+        <v>1.0159703205356863E-3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2050,7 +2064,7 @@
         <v>3.9976336974567594E-2</v>
       </c>
       <c r="D81" s="3">
-        <v>1.2699999999999999E-2</v>
+        <v>1.0826960724559243E-3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,7 +2078,7 @@
         <v>-5.3125843751064883E-2</v>
       </c>
       <c r="D82" s="3">
-        <v>1.4839999999999999E-2</v>
+        <v>1.2349111800999957E-3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,7 +2092,7 @@
         <v>7.265835120129438E-2</v>
       </c>
       <c r="D83" s="3">
-        <v>1.5730000000000001E-2</v>
+        <v>1.3047625943740648E-3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2106,7 @@
         <v>2.5357472614897514E-3</v>
       </c>
       <c r="D84" s="3">
-        <v>1.4119999999999999E-2</v>
+        <v>1.2053108848086858E-3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,7 +2120,7 @@
         <v>6.904501248254924E-3</v>
       </c>
       <c r="D85" s="3">
-        <v>1.4910000000000001E-2</v>
+        <v>1.2513516301178029E-3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,7 +2134,7 @@
         <v>-8.9810974389851861E-2</v>
       </c>
       <c r="D86" s="3">
-        <v>1.77E-2</v>
+        <v>1.4746474625271233E-3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,7 +2148,7 @@
         <v>-3.4303659862302216E-2</v>
       </c>
       <c r="D87" s="3">
-        <v>1.8159999999999999E-2</v>
+        <v>1.5057996461020906E-3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,7 +2162,7 @@
         <v>3.4114344721264844E-2</v>
       </c>
       <c r="D88" s="3">
-        <v>2.3090000000000003E-2</v>
+        <v>1.9334728317226269E-3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,7 +2176,7 @@
         <v>-0.1326168100744558</v>
       </c>
       <c r="D89" s="3">
-        <v>2.8309999999999998E-2</v>
+        <v>2.4159703688348966E-3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,7 +2190,7 @@
         <v>-2.0531608543094881E-2</v>
       </c>
       <c r="D90" s="3">
-        <v>2.7990000000000001E-2</v>
+        <v>2.3437178199632314E-3</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,7 +2204,7 @@
         <v>-8.71298749564412E-2</v>
       </c>
       <c r="D91" s="3">
-        <v>2.9700000000000001E-2</v>
+        <v>2.4800566958853576E-3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,7 +2218,7 @@
         <v>0.12349098809111481</v>
       </c>
       <c r="D92" s="3">
-        <v>2.665E-2</v>
+        <v>2.1982271766594064E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,7 +2232,7 @@
         <v>-4.6364649587714579E-2</v>
       </c>
       <c r="D93" s="3">
-        <v>3.0910000000000003E-2</v>
+        <v>2.625098437631479E-3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,7 +2246,7 @@
         <v>-0.10498975982126235</v>
       </c>
       <c r="D94" s="3">
-        <v>3.6819999999999999E-2</v>
+        <v>3.1361682806418933E-3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,7 +2260,7 @@
         <v>3.9007642105143514E-2</v>
       </c>
       <c r="D95" s="3">
-        <v>4.0160000000000001E-2</v>
+        <v>3.3139261897998651E-3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2274,7 @@
         <v>4.3669771526599233E-2</v>
       </c>
       <c r="D96" s="3">
-        <v>3.6000000000000004E-2</v>
+        <v>2.9604832512712953E-3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,7 +2288,7 @@
         <v>-8.7331705615626087E-2</v>
       </c>
       <c r="D97" s="3">
-        <v>3.8199999999999998E-2</v>
+        <v>3.1764153386533156E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
@@ -6386,16 +6400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E97"/>
+      <selection activeCell="F2" sqref="F2:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6411,8 +6425,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42034</v>
       </c>
@@ -6428,8 +6445,12 @@
       <c r="E2" s="4">
         <v>1.6369999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <f>(1+B2)^(1/12)-1</f>
+        <v>1.3556792508793158E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42062</v>
       </c>
@@ -6445,8 +6466,12 @@
       <c r="E3" s="4">
         <v>1.993E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F66" si="0">(1+B3)^(1/12)-1</f>
+        <v>1.6483078719029542E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42094</v>
       </c>
@@ -6462,8 +6487,12 @@
       <c r="E4" s="4">
         <v>1.9230000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5918226731408414E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42124</v>
       </c>
@@ -6479,8 +6508,12 @@
       <c r="E5" s="4">
         <v>2.019E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6802187961761916E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42155</v>
       </c>
@@ -6496,8 +6529,12 @@
       <c r="E6" s="4">
         <v>2.1269999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7562689808165999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42185</v>
       </c>
@@ -6513,8 +6550,12 @@
       <c r="E7" s="4">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9367360281836721E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42216</v>
       </c>
@@ -6530,8 +6571,12 @@
       <c r="E8" s="4">
         <v>2.1819999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.804482967237897E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42247</v>
       </c>
@@ -6547,8 +6592,12 @@
       <c r="E9" s="4">
         <v>2.1360000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.826538484697604E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42277</v>
       </c>
@@ -6564,8 +6613,12 @@
       <c r="E10" s="4">
         <v>2.035E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6802187961761916E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42307</v>
       </c>
@@ -6581,8 +6634,12 @@
       <c r="E11" s="4">
         <v>2.1419999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7709810385564406E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42338</v>
       </c>
@@ -6598,8 +6655,12 @@
       <c r="E12" s="4">
         <v>2.206E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8216377201596412E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42369</v>
       </c>
@@ -6615,8 +6676,12 @@
       <c r="E13" s="4">
         <v>2.266E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.871449875864295E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42400</v>
       </c>
@@ -6632,8 +6697,12 @@
       <c r="E14" s="4">
         <v>1.9230000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5967358207888971E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42429</v>
       </c>
@@ -6649,8 +6718,12 @@
       <c r="E15" s="4">
         <v>1.7299999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4369226572710225E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42460</v>
       </c>
@@ -6666,8 +6739,12 @@
       <c r="E16" s="4">
         <v>1.7689999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4631676547709471E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42489</v>
       </c>
@@ -6683,8 +6760,12 @@
       <c r="E17" s="4">
         <v>1.8159999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.516454525523292E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42521</v>
       </c>
@@ -6700,8 +6781,12 @@
       <c r="E18" s="4">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5295665117840418E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42551</v>
       </c>
@@ -6717,8 +6802,12 @@
       <c r="E19" s="4">
         <v>1.4530000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2209344624336538E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42582</v>
       </c>
@@ -6734,8 +6823,12 @@
       <c r="E20" s="4">
         <v>1.4499999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2110672517386956E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42613</v>
       </c>
@@ -6751,8 +6844,12 @@
       <c r="E21" s="4">
         <v>1.554E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3055840567823829E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42643</v>
       </c>
@@ -6768,8 +6865,12 @@
       <c r="E22" s="4">
         <v>1.536E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3220117483916383E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42674</v>
       </c>
@@ -6785,8 +6886,12 @@
       <c r="E23" s="4">
         <v>1.8260000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5090782033480021E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42704</v>
       </c>
@@ -6802,8 +6907,12 @@
       <c r="E24" s="4">
         <v>2.291E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.970177053312705E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42734</v>
       </c>
@@ -6819,8 +6928,12 @@
       <c r="E25" s="4">
         <v>2.4310000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0158327727366476E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42766</v>
       </c>
@@ -6836,8 +6949,12 @@
       <c r="E26" s="4">
         <v>2.4329999999999997E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0321328427823637E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42794</v>
       </c>
@@ -6853,8 +6970,12 @@
       <c r="E27" s="4">
         <v>2.3359999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9758852698343876E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42825</v>
       </c>
@@ -6870,8 +6991,12 @@
       <c r="E28" s="4">
         <v>2.3869999999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9693615646076967E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42855</v>
       </c>
@@ -6887,8 +7012,12 @@
       <c r="E29" s="4">
         <v>2.2749999999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8804294971668245E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42886</v>
       </c>
@@ -6904,8 +7033,12 @@
       <c r="E30" s="4">
         <v>2.196E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8200040733760137E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42916</v>
       </c>
@@ -6921,8 +7054,12 @@
       <c r="E31" s="4">
         <v>2.2610000000000002E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9000183257844583E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42947</v>
       </c>
@@ -6938,8 +7075,12 @@
       <c r="E32" s="4">
         <v>2.273E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8934891843425117E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42978</v>
       </c>
@@ -6955,8 +7096,12 @@
       <c r="E33" s="4">
         <v>2.1190000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7505469831089471E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43007</v>
       </c>
@@ -6972,8 +7117,12 @@
       <c r="E34" s="4">
         <v>2.2959999999999998E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9285778178201873E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43039</v>
       </c>
@@ -6989,8 +7138,12 @@
       <c r="E35" s="4">
         <v>2.358E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>1.960390706959636E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43069</v>
       </c>
@@ -7006,8 +7159,12 @@
       <c r="E36" s="4">
         <v>2.3789999999999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9905618985398554E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43098</v>
       </c>
@@ -7023,8 +7180,12 @@
       <c r="E37" s="4">
         <v>2.4049999999999998E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9824085078716802E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43131</v>
       </c>
@@ -7040,8 +7201,12 @@
       <c r="E38" s="4">
         <v>2.6960000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2331986496963996E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43159</v>
       </c>
@@ -7057,8 +7222,12 @@
       <c r="E39" s="4">
         <v>2.862E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3558992305972026E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43188</v>
       </c>
@@ -7074,8 +7243,12 @@
       <c r="E40" s="4">
         <v>2.7389999999999998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2559635576915316E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43220</v>
       </c>
@@ -7091,8 +7264,12 @@
       <c r="E41" s="4">
         <v>2.9340000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4297649035271984E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43251</v>
       </c>
@@ -7108,8 +7285,12 @@
       <c r="E42" s="4">
         <v>2.8220000000000002E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3526510136486767E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43280</v>
       </c>
@@ -7125,8 +7306,12 @@
       <c r="E43" s="4">
         <v>2.8330000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3526510136486767E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43312</v>
       </c>
@@ -7142,8 +7327,12 @@
       <c r="E44" s="4">
         <v>2.9340000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4354443991776442E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43343</v>
       </c>
@@ -7159,8 +7348,12 @@
       <c r="E45" s="4">
         <v>2.8309999999999998E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3526510136486767E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43373</v>
       </c>
@@ -7176,8 +7369,12 @@
       <c r="E46" s="4">
         <v>3.0689999999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5222155196906737E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43404</v>
       </c>
@@ -7193,8 +7390,12 @@
       <c r="E47" s="4">
         <v>3.1230000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5870371923089053E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43434</v>
       </c>
@@ -7210,8 +7411,12 @@
       <c r="E48" s="4">
         <v>2.988E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4605921974834022E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43465</v>
       </c>
@@ -7227,8 +7432,12 @@
       <c r="E49" s="4">
         <v>2.6789999999999998E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2112413859518565E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43496</v>
       </c>
@@ -7244,8 +7453,12 @@
       <c r="E50" s="4">
         <v>2.6190000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1681246956855027E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43524</v>
       </c>
@@ -7261,8 +7474,12 @@
       <c r="E51" s="4">
         <v>2.6589999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2364511276695698E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43555</v>
       </c>
@@ -7278,8 +7495,12 @@
       <c r="E52" s="4">
         <v>2.4239999999999998E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0011602154712538E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43585</v>
       </c>
@@ -7295,8 +7516,12 @@
       <c r="E53" s="4">
         <v>2.5019999999999997E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0630949427329348E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43616</v>
       </c>
@@ -7312,8 +7537,12 @@
       <c r="E54" s="4">
         <v>2.1259999999999998E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7603559019314652E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43646</v>
       </c>
@@ -7329,8 +7558,12 @@
       <c r="E55" s="4">
         <v>2.0379999999999999E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6883992834837436E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43677</v>
       </c>
@@ -7346,8 +7579,12 @@
       <c r="E56" s="4">
         <v>2.0059999999999998E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6573095213119338E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43707</v>
       </c>
@@ -7363,8 +7600,12 @@
       <c r="E57" s="4">
         <v>1.4930000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2406656753911616E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43738</v>
       </c>
@@ -7380,8 +7621,12 @@
       <c r="E58" s="4">
         <v>1.6650000000000002E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3794853340294289E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43769</v>
       </c>
@@ -7397,8 +7642,12 @@
       <c r="E59" s="4">
         <v>1.6810000000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3958996959648751E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43798</v>
       </c>
@@ -7414,8 +7663,12 @@
       <c r="E60" s="4">
         <v>1.7589999999999998E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4664477475530013E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43830</v>
       </c>
@@ -7431,8 +7684,12 @@
       <c r="E61" s="4">
         <v>1.8839999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>1.585271397193555E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43861</v>
       </c>
@@ -7448,8 +7705,12 @@
       <c r="E62" s="4">
         <v>1.5029999999999998E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2455978103835808E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43889</v>
       </c>
@@ -7465,8 +7726,12 @@
       <c r="E63" s="4">
         <v>1.1160000000000002E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>9.6403866721317399E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -7482,8 +7747,12 @@
       <c r="E64" s="4">
         <v>6.5100000000000002E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>5.549695773365837E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -7499,8 +7768,12 @@
       <c r="E65" s="4">
         <v>5.8099999999999992E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3674596566688493E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43982</v>
       </c>
@@ -7516,8 +7789,12 @@
       <c r="E66" s="4">
         <v>6.3600000000000002E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3260372649654997E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44012</v>
       </c>
@@ -7533,8 +7810,12 @@
       <c r="E67" s="4">
         <v>6.1799999999999997E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:F97" si="1">(1+B67)^(1/12)-1</f>
+        <v>5.4668657010048527E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44043</v>
       </c>
@@ -7550,8 +7831,12 @@
       <c r="E68" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <f t="shared" si="1"/>
+        <v>4.430852851513567E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44074</v>
       </c>
@@ -7567,8 +7852,12 @@
       <c r="E69" s="4">
         <v>6.9199999999999991E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8643812772429804E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44104</v>
       </c>
@@ -7584,8 +7873,12 @@
       <c r="E70" s="4">
         <v>6.4099999999999999E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6987708986633301E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44134</v>
       </c>
@@ -7601,8 +7894,12 @@
       <c r="E71" s="4">
         <v>8.0499999999999999E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2543193972407494E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44165</v>
       </c>
@@ -7618,8 +7915,12 @@
       <c r="E72" s="4">
         <v>8.3099999999999997E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9897329592905066E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44196</v>
       </c>
@@ -7635,8 +7936,12 @@
       <c r="E73" s="4">
         <v>9.11E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6014723596040668E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44227</v>
       </c>
@@ -7652,8 +7957,12 @@
       <c r="E74" s="4">
         <v>1.069E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8814868586606366E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44255</v>
       </c>
@@ -7669,8 +7978,12 @@
       <c r="E75" s="4">
         <v>1.3950000000000001E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1551328433219155E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44286</v>
       </c>
@@ -7686,8 +7999,12 @@
       <c r="E76" s="4">
         <v>1.7079999999999998E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4418441706418594E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44316</v>
       </c>
@@ -7703,8 +8020,12 @@
       <c r="E77" s="4">
         <v>1.6200000000000003E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <f t="shared" si="1"/>
+        <v>1.345005537197741E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44347</v>
       </c>
@@ -7720,8 +8041,12 @@
       <c r="E78" s="4">
         <v>1.6080000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3318669405149031E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44377</v>
       </c>
@@ -7737,8 +8062,12 @@
       <c r="E79" s="4">
         <v>1.4379999999999999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2151787195249231E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44407</v>
       </c>
@@ -7754,8 +8083,12 @@
       <c r="E80" s="4">
         <v>1.2239999999999999E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0159703205356863E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44439</v>
       </c>
@@ -7771,8 +8104,12 @@
       <c r="E81" s="4">
         <v>1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0826960724559243E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44469</v>
       </c>
@@ -7788,8 +8125,12 @@
       <c r="E82" s="4">
         <v>1.4839999999999999E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2349111800999957E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44500</v>
       </c>
@@ -7805,8 +8146,12 @@
       <c r="E83" s="4">
         <v>1.5730000000000001E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3047625943740648E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44530</v>
       </c>
@@ -7822,8 +8167,12 @@
       <c r="E84" s="4">
         <v>1.4119999999999999E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2053108848086858E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44561</v>
       </c>
@@ -7839,8 +8188,12 @@
       <c r="E85" s="4">
         <v>1.4910000000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2513516301178029E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44592</v>
       </c>
@@ -7856,8 +8209,12 @@
       <c r="E86" s="4">
         <v>1.77E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4746474625271233E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44620</v>
       </c>
@@ -7873,8 +8230,12 @@
       <c r="E87" s="4">
         <v>1.8159999999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5057996461020906E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44651</v>
       </c>
@@ -7890,8 +8251,12 @@
       <c r="E88" s="4">
         <v>2.3090000000000003E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9334728317226269E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44680</v>
       </c>
@@ -7907,8 +8272,12 @@
       <c r="E89" s="4">
         <v>2.8309999999999998E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4159703688348966E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44712</v>
       </c>
@@ -7924,8 +8293,12 @@
       <c r="E90" s="4">
         <v>2.7990000000000001E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3437178199632314E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44742</v>
       </c>
@@ -7941,8 +8314,12 @@
       <c r="E91" s="4">
         <v>2.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4800566958853576E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44773</v>
       </c>
@@ -7958,8 +8335,12 @@
       <c r="E92" s="4">
         <v>2.665E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1982271766594064E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44804</v>
       </c>
@@ -7975,8 +8356,12 @@
       <c r="E93" s="4">
         <v>3.0910000000000003E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <f t="shared" si="1"/>
+        <v>2.625098437631479E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44834</v>
       </c>
@@ -7992,8 +8377,12 @@
       <c r="E94" s="4">
         <v>3.6819999999999999E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1361682806418933E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44865</v>
       </c>
@@ -8009,8 +8398,12 @@
       <c r="E95" s="4">
         <v>4.0160000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3139261897998651E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44895</v>
       </c>
@@ -8026,8 +8419,12 @@
       <c r="E96" s="4">
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9604832512712953E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44925</v>
       </c>
@@ -8042,6 +8439,10 @@
       </c>
       <c r="E97" s="4">
         <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1764153386533156E-3</v>
       </c>
     </row>
   </sheetData>
